--- a/colors/ColorsTest.xlsx
+++ b/colors/ColorsTest.xlsx
@@ -8,13 +8,171 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laptop Geert\Desktop\colors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADE165B7-CBB2-4C2D-8D98-469BCEF49C5B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625F9144-639A-4F0D-98DA-DCFC76E1E72D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C5E090B8-9F0C-48C9-8A96-089B94C75607}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Blad1!$A$1:$A$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Blad1!$A$3:$A$12</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Blad1!$P$1:$P$2</definedName>
+    <definedName name="_xlchart.v1.100" hidden="1">Blad1!$G$1:$G$2</definedName>
+    <definedName name="_xlchart.v1.101" hidden="1">Blad1!$G$3:$G$12</definedName>
+    <definedName name="_xlchart.v1.102" hidden="1">Blad1!$J$1:$J$2</definedName>
+    <definedName name="_xlchart.v1.103" hidden="1">Blad1!$J$3:$J$12</definedName>
+    <definedName name="_xlchart.v1.104" hidden="1">Blad1!$M$1:$M$2</definedName>
+    <definedName name="_xlchart.v1.105" hidden="1">Blad1!$M$3:$M$12</definedName>
+    <definedName name="_xlchart.v1.106" hidden="1">Blad1!$P$1:$P$2</definedName>
+    <definedName name="_xlchart.v1.107" hidden="1">Blad1!$P$3:$P$12</definedName>
+    <definedName name="_xlchart.v1.108" hidden="1">Blad1!$C$1:$C$2</definedName>
+    <definedName name="_xlchart.v1.109" hidden="1">Blad1!$C$3:$C$12</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Blad1!$P$3:$P$12</definedName>
+    <definedName name="_xlchart.v1.110" hidden="1">Blad1!$F$1:$F$2</definedName>
+    <definedName name="_xlchart.v1.111" hidden="1">Blad1!$F$3:$F$12</definedName>
+    <definedName name="_xlchart.v1.112" hidden="1">Blad1!$I$1:$I$2</definedName>
+    <definedName name="_xlchart.v1.113" hidden="1">Blad1!$I$3:$I$12</definedName>
+    <definedName name="_xlchart.v1.114" hidden="1">Blad1!$L$1:$L$2</definedName>
+    <definedName name="_xlchart.v1.115" hidden="1">Blad1!$L$3:$L$12</definedName>
+    <definedName name="_xlchart.v1.116" hidden="1">Blad1!$O$1:$O$2</definedName>
+    <definedName name="_xlchart.v1.117" hidden="1">Blad1!$O$3:$O$12</definedName>
+    <definedName name="_xlchart.v1.118" hidden="1">Blad1!$R$1:$R$2</definedName>
+    <definedName name="_xlchart.v1.119" hidden="1">Blad1!$R$3:$R$12</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Blad1!$A$1:$A$2</definedName>
+    <definedName name="_xlchart.v1.120" hidden="1">Blad1!$A$1:$A$2</definedName>
+    <definedName name="_xlchart.v1.121" hidden="1">Blad1!$A$3:$A$12</definedName>
+    <definedName name="_xlchart.v1.122" hidden="1">Blad1!$D$1:$D$2</definedName>
+    <definedName name="_xlchart.v1.123" hidden="1">Blad1!$D$3:$D$12</definedName>
+    <definedName name="_xlchart.v1.124" hidden="1">Blad1!$G$1:$G$2</definedName>
+    <definedName name="_xlchart.v1.125" hidden="1">Blad1!$G$3:$G$12</definedName>
+    <definedName name="_xlchart.v1.126" hidden="1">Blad1!$J$1:$J$2</definedName>
+    <definedName name="_xlchart.v1.127" hidden="1">Blad1!$J$3:$J$12</definedName>
+    <definedName name="_xlchart.v1.128" hidden="1">Blad1!$M$1:$M$2</definedName>
+    <definedName name="_xlchart.v1.129" hidden="1">Blad1!$M$3:$M$12</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Blad1!$A$3:$A$12</definedName>
+    <definedName name="_xlchart.v1.130" hidden="1">Blad1!$P$1:$P$2</definedName>
+    <definedName name="_xlchart.v1.131" hidden="1">Blad1!$P$3:$P$12</definedName>
+    <definedName name="_xlchart.v1.132" hidden="1">Blad1!$A$1:$A$2</definedName>
+    <definedName name="_xlchart.v1.133" hidden="1">Blad1!$A$3:$A$12</definedName>
+    <definedName name="_xlchart.v1.134" hidden="1">Blad1!$D$1:$D$2</definedName>
+    <definedName name="_xlchart.v1.135" hidden="1">Blad1!$D$3:$D$12</definedName>
+    <definedName name="_xlchart.v1.136" hidden="1">Blad1!$G$1:$G$2</definedName>
+    <definedName name="_xlchart.v1.137" hidden="1">Blad1!$G$3:$G$12</definedName>
+    <definedName name="_xlchart.v1.138" hidden="1">Blad1!$J$1:$J$2</definedName>
+    <definedName name="_xlchart.v1.139" hidden="1">Blad1!$J$3:$J$12</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Blad1!$D$1:$D$2</definedName>
+    <definedName name="_xlchart.v1.140" hidden="1">Blad1!$M$1:$M$2</definedName>
+    <definedName name="_xlchart.v1.141" hidden="1">Blad1!$M$3:$M$12</definedName>
+    <definedName name="_xlchart.v1.142" hidden="1">Blad1!$P$1:$P$2</definedName>
+    <definedName name="_xlchart.v1.143" hidden="1">Blad1!$P$3:$P$12</definedName>
+    <definedName name="_xlchart.v1.144" hidden="1">Blad1!$B$1:$B$2</definedName>
+    <definedName name="_xlchart.v1.145" hidden="1">Blad1!$B$3:$B$12</definedName>
+    <definedName name="_xlchart.v1.146" hidden="1">Blad1!$E$1:$E$2</definedName>
+    <definedName name="_xlchart.v1.147" hidden="1">Blad1!$E$3:$E$12</definedName>
+    <definedName name="_xlchart.v1.148" hidden="1">Blad1!$H$1:$H$2</definedName>
+    <definedName name="_xlchart.v1.149" hidden="1">Blad1!$H$3:$H$12</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Blad1!$D$3:$D$12</definedName>
+    <definedName name="_xlchart.v1.150" hidden="1">Blad1!$K$1:$K$2</definedName>
+    <definedName name="_xlchart.v1.151" hidden="1">Blad1!$K$3:$K$12</definedName>
+    <definedName name="_xlchart.v1.152" hidden="1">Blad1!$N$1:$N$2</definedName>
+    <definedName name="_xlchart.v1.153" hidden="1">Blad1!$N$3:$N$12</definedName>
+    <definedName name="_xlchart.v1.154" hidden="1">Blad1!$Q$1:$Q$2</definedName>
+    <definedName name="_xlchart.v1.155" hidden="1">Blad1!$Q$3:$Q$12</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Blad1!$G$1:$G$2</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Blad1!$G$3:$G$12</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Blad1!$J$1:$J$2</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Blad1!$J$3:$J$12</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Blad1!$D$1:$D$2</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Blad1!$M$1:$M$2</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Blad1!$M$3:$M$12</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Blad1!$P$1:$P$2</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Blad1!$P$3:$P$12</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Blad1!$A$1:$A$2</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Blad1!$A$3:$A$12</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Blad1!$D$1:$D$2</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Blad1!$D$3:$D$12</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Blad1!$G$1:$G$2</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Blad1!$G$3:$G$12</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Blad1!$D$3:$D$12</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Blad1!$J$1:$J$2</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Blad1!$J$3:$J$12</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Blad1!$M$1:$M$2</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Blad1!$M$3:$M$12</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Blad1!$P$1:$P$2</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Blad1!$P$3:$P$12</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Blad1!$B$1:$B$2</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Blad1!$B$3:$B$12</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Blad1!$E$1:$E$2</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Blad1!$E$3:$E$12</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Blad1!$G$1:$G$2</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">Blad1!$H$1:$H$2</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">Blad1!$H$3:$H$12</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">Blad1!$K$1:$K$2</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">Blad1!$K$3:$K$12</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">Blad1!$N$1:$N$2</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">Blad1!$N$3:$N$12</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">Blad1!$Q$1:$Q$2</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">Blad1!$Q$3:$Q$12</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">Blad1!$C$1:$C$2</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">Blad1!$C$3:$C$12</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Blad1!$G$3:$G$12</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">Blad1!$F$1:$F$2</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">Blad1!$F$3:$F$12</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">Blad1!$I$1:$I$2</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">Blad1!$I$3:$I$12</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">Blad1!$L$1:$L$2</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">Blad1!$L$3:$L$12</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">Blad1!$O$1:$O$2</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">Blad1!$O$3:$O$12</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">Blad1!$R$1:$R$2</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">Blad1!$R$3:$R$12</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Blad1!$J$1:$J$2</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">Blad1!$A$1:$A$2</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">Blad1!$A$3:$A$12</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">Blad1!$D$1:$D$2</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">Blad1!$D$3:$D$12</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">Blad1!$G$1:$G$2</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">Blad1!$G$3:$G$12</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">Blad1!$J$1:$J$2</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">Blad1!$J$3:$J$12</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">Blad1!$M$1:$M$2</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">Blad1!$M$3:$M$12</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Blad1!$J$3:$J$12</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">Blad1!$P$1:$P$2</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">Blad1!$P$3:$P$12</definedName>
+    <definedName name="_xlchart.v1.72" hidden="1">Blad1!$C$1:$C$2</definedName>
+    <definedName name="_xlchart.v1.73" hidden="1">Blad1!$C$3:$C$12</definedName>
+    <definedName name="_xlchart.v1.74" hidden="1">Blad1!$F$1:$F$2</definedName>
+    <definedName name="_xlchart.v1.75" hidden="1">Blad1!$F$3:$F$12</definedName>
+    <definedName name="_xlchart.v1.76" hidden="1">Blad1!$I$1:$I$2</definedName>
+    <definedName name="_xlchart.v1.77" hidden="1">Blad1!$I$3:$I$12</definedName>
+    <definedName name="_xlchart.v1.78" hidden="1">Blad1!$L$1:$L$2</definedName>
+    <definedName name="_xlchart.v1.79" hidden="1">Blad1!$L$3:$L$12</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Blad1!$M$1:$M$2</definedName>
+    <definedName name="_xlchart.v1.80" hidden="1">Blad1!$O$1:$O$2</definedName>
+    <definedName name="_xlchart.v1.81" hidden="1">Blad1!$O$3:$O$12</definedName>
+    <definedName name="_xlchart.v1.82" hidden="1">Blad1!$R$1:$R$2</definedName>
+    <definedName name="_xlchart.v1.83" hidden="1">Blad1!$R$3:$R$12</definedName>
+    <definedName name="_xlchart.v1.84" hidden="1">Blad1!$C$1:$C$2</definedName>
+    <definedName name="_xlchart.v1.85" hidden="1">Blad1!$C$3:$C$12</definedName>
+    <definedName name="_xlchart.v1.86" hidden="1">Blad1!$F$1:$F$2</definedName>
+    <definedName name="_xlchart.v1.87" hidden="1">Blad1!$F$3:$F$12</definedName>
+    <definedName name="_xlchart.v1.88" hidden="1">Blad1!$I$1:$I$2</definedName>
+    <definedName name="_xlchart.v1.89" hidden="1">Blad1!$I$3:$I$12</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Blad1!$M$3:$M$12</definedName>
+    <definedName name="_xlchart.v1.90" hidden="1">Blad1!$L$1:$L$2</definedName>
+    <definedName name="_xlchart.v1.91" hidden="1">Blad1!$L$3:$L$12</definedName>
+    <definedName name="_xlchart.v1.92" hidden="1">Blad1!$O$1:$O$2</definedName>
+    <definedName name="_xlchart.v1.93" hidden="1">Blad1!$O$3:$O$12</definedName>
+    <definedName name="_xlchart.v1.94" hidden="1">Blad1!$R$1:$R$2</definedName>
+    <definedName name="_xlchart.v1.95" hidden="1">Blad1!$R$3:$R$12</definedName>
+    <definedName name="_xlchart.v1.96" hidden="1">Blad1!$A$1:$A$2</definedName>
+    <definedName name="_xlchart.v1.97" hidden="1">Blad1!$A$3:$A$12</definedName>
+    <definedName name="_xlchart.v1.98" hidden="1">Blad1!$D$1:$D$2</definedName>
+    <definedName name="_xlchart.v1.99" hidden="1">Blad1!$D$3:$D$12</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +189,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
   <si>
     <t>Rood</t>
   </si>
@@ -102,6 +260,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3399"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3359,6 +3522,710 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.11</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>Ligging kleuren volgens hue waarden </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>(zonder rood)</a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{403305A9-DF72-493D-AD8F-A28B5305591F}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>Geel h</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{E7300FA9-BC9C-476F-A518-A74D4AFF74D9}" formatIdx="2">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:v>Groen h</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{BC69286B-33E8-42F5-BE2D-A1787BECE51A}" formatIdx="3">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:v>Cyaan h</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{C12C2527-CE70-4734-9055-4329783C66E3}" formatIdx="4">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:v>Blauw h</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{959708A1-40D0-4651-A541-29D9F3B667BA}" formatIdx="5">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:v>Magenta h</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF3399"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="0.150000006"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="360"/>
+        <cx:majorGridlines/>
+        <cx:minorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.145</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.147</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.149</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.151</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.153</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="5">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.155</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Saturatie waarden voor al de kleuren</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Saturatie waarden voor al de kleuren</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{0CCE8FAA-83E7-4497-BD84-D5D8A6539B2C}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.144</cx:f>
+              <cx:v>Rood s</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{113EA8F1-33FE-43CB-8EE3-81C853CBE902}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.146</cx:f>
+              <cx:v>Geel s</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{B1CDA723-83D3-4C01-8580-8B796C291886}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.148</cx:f>
+              <cx:v>Groen s</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{33DBCAE0-18B2-4639-B675-7E31FD9A3335}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.150</cx:f>
+              <cx:v>Cyaan s</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{18DE7629-6D0D-49FE-892C-2449AB4486CB}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.152</cx:f>
+              <cx:v>Blauw s</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{4FA15F3E-B6BE-4F32-BD51-A044474386F3}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.154</cx:f>
+              <cx:v>Magenta s</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF3399"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="5"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="0.150000006"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="1"/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.73</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.75</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.77</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.79</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.81</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="5">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.83</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Licht waarden voor al de kleuren</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Licht waarden voor al de kleuren</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{509EC970-5BA8-40F7-871F-A5A22B7D7528}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.72</cx:f>
+              <cx:v>Rood l</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{111EA42B-F13B-44D0-BB60-5FA39E2568EF}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.74</cx:f>
+              <cx:v>Geel l</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{206DF3BE-076F-4E45-84BF-9C2CE0EBBE40}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.76</cx:f>
+              <cx:v>Groen l</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{C0C233D6-0DED-441C-829C-74328E0B0D97}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.78</cx:f>
+              <cx:v>Cyaan l</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{0EA8C903-E3EF-445B-9CE0-8D489B54F251}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.80</cx:f>
+              <cx:v>Blauw l</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{788B06AC-4800-499C-AFD1-E607DAE0059F}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.82</cx:f>
+              <cx:v>Magenta l</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF3399"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="5"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="0.150000006"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="1"/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3599,6 +4466,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6691,6 +7678,1551 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -6706,9 +9238,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>320842</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66842</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6913,6 +9445,240 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>140369</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>159083</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>935790</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>40106</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Grafiek 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08A99A1B-DBB7-4393-9B6F-5025E85EEB2A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="140369" y="5212346"/>
+              <a:ext cx="4084053" cy="5121444"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="nl-BE" sz="1100"/>
+                <a:t>Deze grafiek is niet beschikbaar in uw versie van Excel.
+Als u deze vorm bewerkt of deze werkmap opslaat in een andere bestandsindeling, wordt de grafiek onherstelbaar beschadigd.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1129631</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>12032</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>267369</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>13369</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="12" name="Grafiek 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C8A47FC-397E-43C7-8A4D-A944400C04BB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4418263" y="5252453"/>
+              <a:ext cx="4605422" cy="2808705"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="nl-BE" sz="1100"/>
+                <a:t>Deze grafiek is niet beschikbaar in uw versie van Excel.
+Als u deze vorm bewerkt of deze werkmap opslaat in een andere bestandsindeling, wordt de grafiek onherstelbaar beschadigd.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>541421</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>159084</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>300790</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>94915</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="14" name="Grafiek 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F85E1E5-670B-4699-84D6-794863239A58}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9297737" y="5212347"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="nl-BE" sz="1100"/>
+                <a:t>Deze grafiek is niet beschikbaar in uw versie van Excel.
+Als u deze vorm bewerkt of deze werkmap opslaat in een andere bestandsindeling, wordt de grafiek onherstelbaar beschadigd.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7215,8 +9981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40863340-DD04-4FF6-A63C-ED992A1F6E4F}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="88" zoomScaleNormal="57" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7238,19 +10004,55 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
       <c r="J1" t="s">
         <v>4</v>
       </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
       <c r="M1" t="s">
         <v>1</v>
       </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
       <c r="P1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" t="s">
         <v>5</v>
       </c>
     </row>
